--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandee\Documents\Github\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{04FF1FC0-52AE-4638-9C2E-7B0056753806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BFE5FD-40B7-4AC6-BF39-826A63970306}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252CC3E-A50E-4DB5-8DFA-66AD561181FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="41490" windowHeight="16770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost_factor" sheetId="10" r:id="rId1"/>
-    <sheet name="fuel_scenarios" sheetId="11" r:id="rId2"/>
-    <sheet name="fuel_scenario_det" sheetId="12" r:id="rId3"/>
-    <sheet name="scenarios_base" sheetId="8" r:id="rId4"/>
-    <sheet name="nine_scenarios" sheetId="9" r:id="rId5"/>
-    <sheet name="four_scenarios" sheetId="4" r:id="rId6"/>
-    <sheet name="EV_scenario" sheetId="6" r:id="rId7"/>
-    <sheet name="variability" sheetId="3" r:id="rId8"/>
+    <sheet name="demand_factor" sheetId="15" r:id="rId2"/>
+    <sheet name="fuel_scenarios" sheetId="11" r:id="rId3"/>
+    <sheet name="fuel_scenarios_5" sheetId="14" r:id="rId4"/>
+    <sheet name="fuel_scenarios_demand" sheetId="13" r:id="rId5"/>
+    <sheet name="fuel_scenario_det" sheetId="12" r:id="rId6"/>
+    <sheet name="scenarios_base" sheetId="8" r:id="rId7"/>
+    <sheet name="nine_scenarios" sheetId="9" r:id="rId8"/>
+    <sheet name="four_scenarios" sheetId="4" r:id="rId9"/>
+    <sheet name="EV_scenario" sheetId="6" r:id="rId10"/>
+    <sheet name="variability" sheetId="3" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="71">
   <si>
     <t>Variability</t>
   </si>
@@ -233,6 +245,18 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Damand Factor</t>
   </si>
 </sst>
 </file>
@@ -581,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62B08C-45D2-4F7F-A1A1-F485128869A7}">
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:G823"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D668" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G731" sqref="G731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10517,21 +10541,6963 @@
         <v>1.0979693439847511</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="3"/>
-      <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
-      <c r="D497" s="3"/>
-      <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="3"/>
-      <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B497" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F497" s="5">
+        <v>0.99561618873797852</v>
+      </c>
+      <c r="G497" s="5"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B498" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F498" s="5">
+        <v>0.99847351578614074</v>
+      </c>
+      <c r="G498" s="5"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B499" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F499" s="5">
+        <v>0.99664001220596687</v>
+      </c>
+      <c r="G499" s="5"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B500" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F500" s="5">
+        <v>0.99237698400015417</v>
+      </c>
+      <c r="G500" s="5"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B501" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F501" s="5">
+        <v>0.99721715085658125</v>
+      </c>
+      <c r="G501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B502" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F502" s="5">
+        <v>0.99429652932388846</v>
+      </c>
+      <c r="G502" s="5"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B503" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F503" s="5">
+        <v>0.99244764794284468</v>
+      </c>
+      <c r="G503" s="5"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B504" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F504" s="5">
+        <v>0.99726383098018734</v>
+      </c>
+      <c r="G504" s="5"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B505" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F505" s="5">
+        <v>0.99438587229137787</v>
+      </c>
+      <c r="G505" s="5"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B506" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F506" s="5">
+        <v>0.99410068386659323</v>
+      </c>
+      <c r="G506" s="5"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B507" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F507" s="5">
+        <v>0.99790503124308372</v>
+      </c>
+      <c r="G507" s="5"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B508" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F508" s="5">
+        <v>0.99554010187147224</v>
+      </c>
+      <c r="G508" s="5"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B509" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F509" s="5">
+        <v>0.99333875805292104</v>
+      </c>
+      <c r="G509" s="5"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B510" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F510" s="5">
+        <v>0.99761338569038926</v>
+      </c>
+      <c r="G510" s="5"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B511" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F511" s="5">
+        <v>0.9950046771066926</v>
+      </c>
+      <c r="G511" s="5"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B512" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512" s="5">
+        <v>0.98604011911818357</v>
+      </c>
+      <c r="G512" s="5"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B513" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F513" s="5">
+        <v>1</v>
+      </c>
+      <c r="G513" s="5"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B514" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F514" s="5">
+        <v>0.99519079367207275</v>
+      </c>
+      <c r="G514" s="5"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B515" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F515" s="5">
+        <v>0.97527107752080444</v>
+      </c>
+      <c r="G515" s="5"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B516" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F516" s="5">
+        <v>0.99593217703705106</v>
+      </c>
+      <c r="G516" s="5"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B517" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F517" s="5">
+        <v>0.99177682115291255</v>
+      </c>
+      <c r="G517" s="5"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B518" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F518" s="5">
+        <v>0.97551827715877826</v>
+      </c>
+      <c r="G518" s="5"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B519" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F519" s="5">
+        <v>0.99597834687447984</v>
+      </c>
+      <c r="G519" s="5"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B520" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F520" s="5">
+        <v>0.99187499919985789</v>
+      </c>
+      <c r="G520" s="5"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B521" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521" s="5">
+        <v>0.98105336179813252</v>
+      </c>
+      <c r="G521" s="5"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B522" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F522" s="5">
+        <v>0.99690831017634429</v>
+      </c>
+      <c r="G522" s="5"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B523" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F523" s="5">
+        <v>0.99358591758953152</v>
+      </c>
+      <c r="G523" s="5"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B524" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F524" s="5">
+        <v>0.97851511626985355</v>
+      </c>
+      <c r="G524" s="5"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B525" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F525" s="5">
+        <v>0.99648372878067337</v>
+      </c>
+      <c r="G525" s="5"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B526" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F526" s="5">
+        <v>0.98655885796921616</v>
+      </c>
+      <c r="G526" s="5"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B527" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B528" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F528" s="5">
+        <v>0.9943337676691506</v>
+      </c>
+      <c r="G528" s="5"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B529" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F529" s="5">
+        <v>0.97587322079901728</v>
+      </c>
+      <c r="G529" s="5"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B530" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F530" s="5">
+        <v>0.99489613961588996</v>
+      </c>
+      <c r="G530" s="5"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B531" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F531" s="5">
+        <v>0.99010632987058378</v>
+      </c>
+      <c r="G531" s="5"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B532" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F532" s="5">
+        <v>0.97613188043892718</v>
+      </c>
+      <c r="G532" s="5"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B533" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F533" s="5">
+        <v>0.9949452669192933</v>
+      </c>
+      <c r="G533" s="5"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B534" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F534" s="5">
+        <v>0.99020705614504823</v>
+      </c>
+      <c r="G534" s="5"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B535" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535" s="5">
+        <v>0.98164837067467214</v>
+      </c>
+      <c r="G535" s="5"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B536" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F536" s="5">
+        <v>0.99611997207848901</v>
+      </c>
+      <c r="G536" s="5"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B537" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F537" s="5">
+        <v>0.99236243542580671</v>
+      </c>
+      <c r="G537" s="5"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B538" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F538" s="5">
+        <v>0.97912791533649657</v>
+      </c>
+      <c r="G538" s="5"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B539" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539" s="5">
+        <v>0.99558372470042977</v>
+      </c>
+      <c r="G539" s="5"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B540" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F540" s="5">
+        <v>0.99137019138759253</v>
+      </c>
+      <c r="G540" s="5"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B541" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F541" s="5">
+        <v>0.98780161016943502</v>
+      </c>
+      <c r="G541" s="5"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B542" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F542" s="5">
+        <v>0.99479904833381128</v>
+      </c>
+      <c r="G542" s="5"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B543" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F543" s="5">
+        <v>0.99593601772632634</v>
+      </c>
+      <c r="G543" s="5"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B544" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F544" s="5">
+        <v>0.99277809276624018</v>
+      </c>
+      <c r="G544" s="5"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B545" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F545" s="5">
+        <v>0.98789272348967083</v>
+      </c>
+      <c r="G545" s="5"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B546" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F546" s="5">
+        <v>0.99484675735215877</v>
+      </c>
+      <c r="G546" s="5"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B547" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F547" s="5">
+        <v>0.99596333024316963</v>
+      </c>
+      <c r="G547" s="5"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B548" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F548" s="5">
+        <v>0.99281651943308524</v>
+      </c>
+      <c r="G548" s="5"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B549" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549" s="5">
+        <v>0.98718234787732539</v>
+      </c>
+      <c r="G549" s="5"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B550" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F550" s="5">
+        <v>0.9944703896100433</v>
+      </c>
+      <c r="G550" s="5"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B551" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F551" s="5">
+        <v>0.99574992811176322</v>
+      </c>
+      <c r="G551" s="5"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B552" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F552" s="5">
+        <v>0.99252019112196832</v>
+      </c>
+      <c r="G552" s="5"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B553" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553" s="5">
+        <v>0.99153517991689588</v>
+      </c>
+      <c r="G553" s="5"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B554" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F554" s="5">
+        <v>0.9966284815339983</v>
+      </c>
+      <c r="G554" s="5"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B555" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F555" s="5">
+        <v>0.99709524897555768</v>
+      </c>
+      <c r="G555" s="5"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B556" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F556" s="5">
+        <v>0.99450605737508191</v>
+      </c>
+      <c r="G556" s="5"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B557" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F557" s="5">
+        <v>0.98766524869880601</v>
+      </c>
+      <c r="G557" s="5"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B558" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F558" s="5">
+        <v>0.9947273390138478</v>
+      </c>
+      <c r="G558" s="5"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B559" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559" s="5">
+        <v>0.99589460489737336</v>
+      </c>
+      <c r="G559" s="5"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B560" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F560" s="5">
+        <v>0.99272046301163441</v>
+      </c>
+      <c r="G560" s="5"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B561" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F561" s="5">
+        <v>0.95655940678400497</v>
+      </c>
+      <c r="G561" s="5"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B562" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F562" s="5">
+        <v>0.99238724755101893</v>
+      </c>
+      <c r="G562" s="5"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B563" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F563" s="5">
+        <v>0.99348138049545565</v>
+      </c>
+      <c r="G563" s="5"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B564" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F564" s="5">
+        <v>0.98840125816179103</v>
+      </c>
+      <c r="G564" s="5"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B565" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F565" s="5">
+        <v>0.95689955176769648</v>
+      </c>
+      <c r="G565" s="5"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B566" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F566" s="5">
+        <v>0.99245606360660843</v>
+      </c>
+      <c r="G566" s="5"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B567" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F567" s="5">
+        <v>0.99352872086946298</v>
+      </c>
+      <c r="G567" s="5"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B568" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F568" s="5">
+        <v>0.9884752739142908</v>
+      </c>
+      <c r="G568" s="5"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B569" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F569" s="5">
+        <v>0.95424100048632376</v>
+      </c>
+      <c r="G569" s="5"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B570" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F570" s="5">
+        <v>0.99191368985832784</v>
+      </c>
+      <c r="G570" s="5"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B571" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F571" s="5">
+        <v>0.99315803671404601</v>
+      </c>
+      <c r="G571" s="5"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B572" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F572" s="5">
+        <v>0.98790038120664259</v>
+      </c>
+      <c r="G572" s="5"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B573" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F573" s="5">
+        <v>0.97029793160964706</v>
+      </c>
+      <c r="G573" s="5"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B574" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" s="5">
+        <v>0.99503939446088818</v>
+      </c>
+      <c r="G574" s="5"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B575" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F575" s="5">
+        <v>0.99544437626357007</v>
+      </c>
+      <c r="G575" s="5"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B576" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F576" s="5">
+        <v>0.99158054895624836</v>
+      </c>
+      <c r="G576" s="5"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B577" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F577" s="5">
+        <v>0.95604987857819101</v>
+      </c>
+      <c r="G577" s="5"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B578" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F578" s="5">
+        <v>0.99228384806122039</v>
+      </c>
+      <c r="G578" s="5"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B579" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F579" s="5">
+        <v>0.99340973278366596</v>
+      </c>
+      <c r="G579" s="5"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B580" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F580" s="5">
+        <v>0.98828995763175675</v>
+      </c>
+      <c r="G580" s="5"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B581" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" s="5">
+        <v>0.95215523366640809</v>
+      </c>
+      <c r="G581" s="5"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B582" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F582" s="5">
+        <v>0.99033324424338831</v>
+      </c>
+      <c r="G582" s="5"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B583" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F583" s="5">
+        <v>0.99059009326142178</v>
+      </c>
+      <c r="G583" s="5"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B584" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F584" s="5">
+        <v>0.98338526235352686</v>
+      </c>
+      <c r="G584" s="5"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B585" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F585" s="5">
+        <v>0.95253947411116291</v>
+      </c>
+      <c r="G585" s="5"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B586" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F586" s="5">
+        <v>0.99042234332064827</v>
+      </c>
+      <c r="G586" s="5"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B587" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F587" s="5">
+        <v>0.99066936729860577</v>
+      </c>
+      <c r="G587" s="5"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B588" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F588" s="5">
+        <v>0.98353014148338158</v>
+      </c>
+      <c r="G588" s="5"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B589" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F589" s="5">
+        <v>0.94953212493468575</v>
+      </c>
+      <c r="G589" s="5"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B590" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F590" s="5">
+        <v>0.98971924220575336</v>
+      </c>
+      <c r="G590" s="5"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B591" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F591" s="5">
+        <v>0.99004492029495128</v>
+      </c>
+      <c r="G591" s="5"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B592" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F592" s="5">
+        <v>0.98238658465186579</v>
+      </c>
+      <c r="G592" s="5"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B593" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F593" s="5">
+        <v>0.96755200168203015</v>
+      </c>
+      <c r="G593" s="5"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B594" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F594" s="5">
+        <v>0.99374415850439179</v>
+      </c>
+      <c r="G594" s="5"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B595" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F595" s="5">
+        <v>0.99372483152342272</v>
+      </c>
+      <c r="G595" s="5"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B596" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596" s="5">
+        <v>0.98904916797189124</v>
+      </c>
+      <c r="G596" s="5"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B597" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597" s="5">
+        <v>0.95157936039837787</v>
+      </c>
+      <c r="G597" s="5"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B598" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" s="5">
+        <v>0.99019930848918303</v>
+      </c>
+      <c r="G598" s="5"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B599" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F599" s="5">
+        <v>0.99047026671717431</v>
+      </c>
+      <c r="G599" s="5"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B600" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F600" s="5">
+        <v>0.9770072262166376</v>
+      </c>
+      <c r="G600" s="5"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B601" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F601" s="5">
+        <v>0.96659211296828973</v>
+      </c>
+      <c r="G601" s="5"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B602" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F602" s="5">
+        <v>0.98073208764779951</v>
+      </c>
+      <c r="G602" s="5"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B603" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F603" s="5">
+        <v>0.9763680674587325</v>
+      </c>
+      <c r="G603" s="5"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B604" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F604" s="5">
+        <v>0.98532183773215398</v>
+      </c>
+      <c r="G604" s="5"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B605" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F605" s="5">
+        <v>0.97869656906053404</v>
+      </c>
+      <c r="G605" s="5"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B606" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F606" s="5">
+        <v>0.96823287211849074</v>
+      </c>
+      <c r="G606" s="5"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B607" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F607" s="5">
+        <v>0.98120477845085641</v>
+      </c>
+      <c r="G607" s="5"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B608" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F608" s="5">
+        <v>0.97699617169756015</v>
+      </c>
+      <c r="G608" s="5"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B609" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F609" s="5">
+        <v>0.98552323247933848</v>
+      </c>
+      <c r="G609" s="5"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B610" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F610" s="5">
+        <v>0.9770007660165938</v>
+      </c>
+      <c r="G610" s="5"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B611" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F611" s="5">
+        <v>0.96658599989356897</v>
+      </c>
+      <c r="G611" s="5"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B612" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F612" s="5">
+        <v>0.98073002377074159</v>
+      </c>
+      <c r="G612" s="5"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B613" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F613" s="5">
+        <v>0.97636541179631564</v>
+      </c>
+      <c r="G613" s="5"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B614" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F614" s="5">
+        <v>0.98532105593669927</v>
+      </c>
+      <c r="G614" s="5"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B615" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F615" s="5">
+        <v>0.97698965288887907</v>
+      </c>
+      <c r="G615" s="5"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B616" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F616" s="5">
+        <v>0.96657548670816806</v>
+      </c>
+      <c r="G616" s="5"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B617" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F617" s="5">
+        <v>0.98072744153701752</v>
+      </c>
+      <c r="G617" s="5"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B618" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F618" s="5">
+        <v>0.97636187464048774</v>
+      </c>
+      <c r="G618" s="5"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B619" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F619" s="5">
+        <v>0.98531987448985237</v>
+      </c>
+      <c r="G619" s="5"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B620" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F620" s="5">
+        <v>0.91435117400938704</v>
+      </c>
+      <c r="G620" s="5"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B621" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F621" s="5">
+        <v>0.86917560791901605</v>
+      </c>
+      <c r="G621" s="5"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B622" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F622" s="5">
+        <v>0.96876832520440281</v>
+      </c>
+      <c r="G622" s="5"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B623" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F623" s="5">
+        <v>0.96402435867415437</v>
+      </c>
+      <c r="G623" s="5"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B624" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F624" s="5">
+        <v>0.96958260356281867</v>
+      </c>
+      <c r="G624" s="5"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B625" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F625" s="5">
+        <v>0.92125344647449081</v>
+      </c>
+      <c r="G625" s="5"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B626" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F626" s="5">
+        <v>0.87658265414421443</v>
+      </c>
+      <c r="G626" s="5"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B627" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" s="5">
+        <v>0.96964336574193677</v>
+      </c>
+      <c r="G627" s="5"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B628" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F628" s="5">
+        <v>0.96505160615423602</v>
+      </c>
+      <c r="G628" s="5"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B629" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F629" s="5">
+        <v>0.97018743860908951</v>
+      </c>
+      <c r="G629" s="5"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B630" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F630" s="5">
+        <v>0.91432457403815048</v>
+      </c>
+      <c r="G630" s="5"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B631" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F631" s="5">
+        <v>0.86914779066455838</v>
+      </c>
+      <c r="G631" s="5"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B632" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F632" s="5">
+        <v>0.96876450432493588</v>
+      </c>
+      <c r="G632" s="5"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B633" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F633" s="5">
+        <v>0.96402001447221397</v>
+      </c>
+      <c r="G633" s="5"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B634" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F634" s="5">
+        <v>0.96958024082672667</v>
+      </c>
+      <c r="G634" s="5"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B635" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F635" s="5">
+        <v>0.91427881188292126</v>
+      </c>
+      <c r="G635" s="5"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B636" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F636" s="5">
+        <v>0.86909994705962601</v>
+      </c>
+      <c r="G636" s="5"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B637" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F637" s="5">
+        <v>0.96875969233905002</v>
+      </c>
+      <c r="G637" s="5"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B638" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F638" s="5">
+        <v>0.96401420917704694</v>
+      </c>
+      <c r="G638" s="5"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B639" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F639" s="5">
+        <v>0.96957667004842407</v>
+      </c>
+      <c r="G639" s="5"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B640" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F640" s="5">
+        <v>0.90766002054982542</v>
+      </c>
+      <c r="G640" s="5"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B641" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F641" s="5">
+        <v>0.85176875751396475</v>
+      </c>
+      <c r="G641" s="5"/>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B642" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F642" s="5">
+        <v>0.95215044477953137</v>
+      </c>
+      <c r="G642" s="5"/>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B643" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F643" s="5">
+        <v>0.94685336831016231</v>
+      </c>
+      <c r="G643" s="5"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B644" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F644" s="5">
+        <v>0.94776591748146899</v>
+      </c>
+      <c r="G644" s="5"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B645" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F645" s="5">
+        <v>0.91559876013359376</v>
+      </c>
+      <c r="G645" s="5"/>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B646" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F646" s="5">
+        <v>0.86116577921306381</v>
+      </c>
+      <c r="G646" s="5"/>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B647" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F647" s="5">
+        <v>0.9541155842108211</v>
+      </c>
+      <c r="G647" s="5"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B648" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F648" s="5">
+        <v>0.949001835494931</v>
+      </c>
+      <c r="G648" s="5"/>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B649" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F649" s="5">
+        <v>0.94940128664286627</v>
+      </c>
+      <c r="G649" s="5"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B650" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F650" s="5">
+        <v>0.90762924530104505</v>
+      </c>
+      <c r="G650" s="5"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B651" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F651" s="5">
+        <v>0.85173321059722651</v>
+      </c>
+      <c r="G651" s="5"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B652" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F652" s="5">
+        <v>0.95214200486725753</v>
+      </c>
+      <c r="G652" s="5"/>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B653" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F653" s="5">
+        <v>0.94684431062079577</v>
+      </c>
+      <c r="G653" s="5"/>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B654" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F654" s="5">
+        <v>0.94775945341476442</v>
+      </c>
+      <c r="G654" s="5"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B655" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F655" s="5">
+        <v>0.90757629679633478</v>
+      </c>
+      <c r="G655" s="5"/>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B656" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F656" s="5">
+        <v>0.85167206803064044</v>
+      </c>
+      <c r="G656" s="5"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B657" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F657" s="5">
+        <v>0.95213077402582114</v>
+      </c>
+      <c r="G657" s="5"/>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B658" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F658" s="5">
+        <v>0.94683186653150608</v>
+      </c>
+      <c r="G658" s="5"/>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B659" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F659" s="5">
+        <v>0.94774968320813291</v>
+      </c>
+      <c r="G659" s="5"/>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F660" s="5">
+        <v>1.0015069351213199</v>
+      </c>
+      <c r="G660" s="5"/>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B661" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F661" s="5">
+        <v>1.0034853252281759</v>
+      </c>
+      <c r="G661" s="5"/>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B662" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F662" s="5">
+        <v>1.007671648431463</v>
+      </c>
+      <c r="G662" s="5"/>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B663" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F663" s="5">
+        <v>1.0026204117499469</v>
+      </c>
+      <c r="G663" s="5"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B664" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F664" s="5">
+        <v>1.0063539041135863</v>
+      </c>
+      <c r="G664" s="5"/>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B665" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F665" s="5">
+        <v>1.0130223752431446</v>
+      </c>
+      <c r="G665" s="5"/>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B666" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F666" s="5">
+        <v>1.0025961210196472</v>
+      </c>
+      <c r="G666" s="5"/>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B667" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" s="5">
+        <v>1.006247322328474</v>
+      </c>
+      <c r="G667" s="5"/>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B668" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F668" s="5">
+        <v>1.0128183840745999</v>
+      </c>
+      <c r="G668" s="5"/>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B669" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F669" s="5">
+        <v>1.0020278899208586</v>
+      </c>
+      <c r="G669" s="5"/>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B670" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F670" s="5">
+        <v>1.0047833101675256</v>
+      </c>
+      <c r="G670" s="5"/>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B671" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F671" s="5">
+        <v>1.0101830043975053</v>
+      </c>
+      <c r="G671" s="5"/>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B672" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F672" s="5">
+        <v>1.0022898019193085</v>
+      </c>
+      <c r="G672" s="5"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B673" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F673" s="5">
+        <v>1.0054492060826372</v>
+      </c>
+      <c r="G673" s="5"/>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B674" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F674" s="5">
+        <v>1.0114055060280722</v>
+      </c>
+      <c r="G674" s="5"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B675" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F675" s="5">
+        <v>1.0057381105465133</v>
+      </c>
+      <c r="G675" s="5"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B676" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F676" s="5">
+        <v>1</v>
+      </c>
+      <c r="G676" s="5"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B677" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F677" s="5">
+        <v>1.0068802632607898</v>
+      </c>
+      <c r="G677" s="5"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B678" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F678" s="5">
+        <v>1.0101646491172152</v>
+      </c>
+      <c r="G678" s="5"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B679" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F679" s="5">
+        <v>1.0058089145035107</v>
+      </c>
+      <c r="G679" s="5"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B680" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F680" s="5">
+        <v>1.0117644433302788</v>
+      </c>
+      <c r="G680" s="5"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B681" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F681" s="5">
+        <v>1.0100630394500727</v>
+      </c>
+      <c r="G681" s="5"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B682" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F682" s="5">
+        <v>1.0057429832570657</v>
+      </c>
+      <c r="G682" s="5"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B683" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F683" s="5">
+        <v>1.0116239854743765</v>
+      </c>
+      <c r="G683" s="5"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B684" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F684" s="5">
+        <v>1.0077878819602768</v>
+      </c>
+      <c r="G684" s="5"/>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B685" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F685" s="5">
+        <v>1.0044149811878662</v>
+      </c>
+      <c r="G685" s="5"/>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B686" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F686" s="5">
+        <v>1.0091762699604205</v>
+      </c>
+      <c r="G686" s="5"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B687" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F687" s="5">
+        <v>1.0088312098768086</v>
+      </c>
+      <c r="G687" s="5"/>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B688" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F688" s="5">
+        <v>1.0050212900291551</v>
+      </c>
+      <c r="G688" s="5"/>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B689" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F689" s="5">
+        <v>1.0103095053014599</v>
+      </c>
+      <c r="G689" s="5"/>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B690" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F690" s="5">
+        <v>1.0088327504773722</v>
+      </c>
+      <c r="G690" s="5"/>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B691" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F691" s="5">
+        <v>1</v>
+      </c>
+      <c r="G691" s="5"/>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B692" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F692" s="5">
+        <v>1.0053120928101715</v>
+      </c>
+      <c r="G692" s="5"/>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B693" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F693" s="5">
+        <v>1.0158547406177889</v>
+      </c>
+      <c r="G693" s="5"/>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B694" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F694" s="5">
+        <v>1.0047848691101033</v>
+      </c>
+      <c r="G694" s="5"/>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B695" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F695" s="5">
+        <v>1.0092753157463279</v>
+      </c>
+      <c r="G695" s="5"/>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B696" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F696" s="5">
+        <v>1.0156847642829907</v>
+      </c>
+      <c r="G696" s="5"/>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B697" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F697" s="5">
+        <v>1.0047388122631626</v>
+      </c>
+      <c r="G697" s="5"/>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B698" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F698" s="5">
+        <v>1.0091808848640174</v>
+      </c>
+      <c r="G698" s="5"/>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B699" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F699" s="5">
+        <v>1.0120596421280725</v>
+      </c>
+      <c r="G699" s="5"/>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B700" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F700" s="5">
+        <v>1.0036375261764166</v>
+      </c>
+      <c r="G700" s="5"/>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B701" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F701" s="5">
+        <v>1.0071602167883063</v>
+      </c>
+      <c r="G701" s="5"/>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B702" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F702" s="5">
+        <v>1.0137159413503023</v>
+      </c>
+      <c r="G702" s="5"/>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B703" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F703" s="5">
+        <v>1.0041402580933472</v>
+      </c>
+      <c r="G703" s="5"/>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B704" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F704" s="5">
+        <v>1.0080904455741324</v>
+      </c>
+      <c r="G704" s="5"/>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B705" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F705" s="5">
+        <v>1.0041931965042568</v>
+      </c>
+      <c r="G705" s="5"/>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B706" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F706" s="5">
+        <v>1.0118750052493906</v>
+      </c>
+      <c r="G706" s="5"/>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A707" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B707" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F707" s="5">
+        <v>1.0092790346711054</v>
+      </c>
+      <c r="G707" s="5"/>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A708" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B708" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F708" s="5">
+        <v>1.0164893257649426</v>
+      </c>
+      <c r="G708" s="5"/>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A709" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B709" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F709" s="5">
+        <v>1.0041618763004256</v>
+      </c>
+      <c r="G709" s="5"/>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A710" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B710" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F710" s="5">
+        <v>1.0117660742537415</v>
+      </c>
+      <c r="G710" s="5"/>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A711" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B711" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F711" s="5">
+        <v>1.0092166737222432</v>
+      </c>
+      <c r="G711" s="5"/>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B712" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F712" s="5">
+        <v>1.0164015885776378</v>
+      </c>
+      <c r="G712" s="5"/>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B713" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F713" s="5">
+        <v>1.0044060679171694</v>
+      </c>
+      <c r="G713" s="5"/>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B714" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F714" s="5">
+        <v>1.0126254110059707</v>
+      </c>
+      <c r="G714" s="5"/>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B715" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F715" s="5">
+        <v>1.0097039213633152</v>
+      </c>
+      <c r="G715" s="5"/>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B716" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F716" s="5">
+        <v>1.0170781763400143</v>
+      </c>
+      <c r="G716" s="5"/>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B717" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F717" s="5">
+        <v>1.0029097819035671</v>
+      </c>
+      <c r="G717" s="5"/>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B718" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F718" s="5">
+        <v>1.0076979756882698</v>
+      </c>
+      <c r="G718" s="5"/>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B719" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F719" s="5">
+        <v>1.0066322349980039</v>
+      </c>
+      <c r="G719" s="5"/>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B720" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F720" s="5">
+        <v>1.0125439730453332</v>
+      </c>
+      <c r="G720" s="5"/>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B721" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F721" s="5">
+        <v>1.0042400707597854</v>
+      </c>
+      <c r="G721" s="5"/>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B722" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F722" s="5">
+        <v>1.0120387346215614</v>
+      </c>
+      <c r="G722" s="5"/>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B723" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F723" s="5">
+        <v>1.0093735899742056</v>
+      </c>
+      <c r="G723" s="5"/>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B724" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F724" s="5">
+        <v>1.0166209081526265</v>
+      </c>
+      <c r="G724" s="5"/>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B725" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F725" s="5">
+        <v>1.0178559493587218</v>
+      </c>
+      <c r="G725" s="5"/>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B726" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F726" s="5">
+        <v>1.0108711289835646</v>
+      </c>
+      <c r="G726" s="5"/>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B727" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F727" s="5">
+        <v>1.0093086901096024</v>
+      </c>
+      <c r="G727" s="5"/>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B728" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F728" s="5">
+        <v>1.0165936730302874</v>
+      </c>
+      <c r="G728" s="5"/>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B729" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F729" s="5">
+        <v>1.0177161351629715</v>
+      </c>
+      <c r="G729" s="5"/>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B730" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F730" s="5">
+        <v>1.0107728585851152</v>
+      </c>
+      <c r="G730" s="5"/>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B731" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F731" s="5">
+        <v>1.0092410873187045</v>
+      </c>
+      <c r="G731" s="5"/>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B732" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F732" s="5">
+        <v>1.0164877828214005</v>
+      </c>
+      <c r="G732" s="5"/>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B733" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F733" s="5">
+        <v>1.0188089139105294</v>
+      </c>
+      <c r="G733" s="5"/>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B734" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F734" s="5">
+        <v>1.0115473767392751</v>
+      </c>
+      <c r="G734" s="5"/>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B735" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F735" s="5">
+        <v>1.0097704300620434</v>
+      </c>
+      <c r="G735" s="5"/>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B736" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F736" s="5">
+        <v>1.0173102497537005</v>
+      </c>
+      <c r="G736" s="5"/>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B737" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F737" s="5">
+        <v>1.0122088256573842</v>
+      </c>
+      <c r="G737" s="5"/>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B738" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F738" s="5">
+        <v>1.0070838219177198</v>
+      </c>
+      <c r="G738" s="5"/>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B739" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F739" s="5">
+        <v>1.0065055016002717</v>
+      </c>
+      <c r="G739" s="5"/>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B740" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F740" s="5">
+        <v>1.0120452390150019</v>
+      </c>
+      <c r="G740" s="5"/>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B741" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F741" s="5">
+        <v>1.0180653873328906</v>
+      </c>
+      <c r="G741" s="5"/>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B742" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F742" s="5">
+        <v>1.0110187850643273</v>
+      </c>
+      <c r="G742" s="5"/>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B743" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F743" s="5">
+        <v>1.0094110041571775</v>
+      </c>
+      <c r="G743" s="5"/>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B744" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F744" s="5">
+        <v>1.0167529044908412</v>
+      </c>
+      <c r="G744" s="5"/>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B745" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F745" s="5">
+        <v>1.0314408464477891</v>
+      </c>
+      <c r="G745" s="5"/>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B746" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F746" s="5">
+        <v>1.0090625835218237</v>
+      </c>
+      <c r="G746" s="5"/>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B747" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F747" s="5">
+        <v>1.0088217875674168</v>
+      </c>
+      <c r="G747" s="5"/>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B748" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F748" s="5">
+        <v>1.0155763165435689</v>
+      </c>
+      <c r="G748" s="5"/>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B749" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F749" s="5">
+        <v>1.0311883455840931</v>
+      </c>
+      <c r="G749" s="5"/>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B750" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F750" s="5">
+        <v>1.0089790531368923</v>
+      </c>
+      <c r="G750" s="5"/>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B751" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F751" s="5">
+        <v>1.0087474681575572</v>
+      </c>
+      <c r="G751" s="5"/>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B752" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F752" s="5">
+        <v>1.0154404923593299</v>
+      </c>
+      <c r="G752" s="5"/>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B753" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F753" s="5">
+        <v>1.0331646036143496</v>
+      </c>
+      <c r="G753" s="5"/>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A754" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B754" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F754" s="5">
+        <v>1.0096382104321062</v>
+      </c>
+      <c r="G754" s="5"/>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A755" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B755" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F755" s="5">
+        <v>1.0093328872234832</v>
+      </c>
+      <c r="G755" s="5"/>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A756" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B756" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F756" s="5">
+        <v>1.0165125768888763</v>
+      </c>
+      <c r="G756" s="5"/>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A757" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B757" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F757" s="5">
+        <v>1.0213229703232374</v>
+      </c>
+      <c r="G757" s="5"/>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A758" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B758" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F758" s="5">
+        <v>1.0058648514021327</v>
+      </c>
+      <c r="G758" s="5"/>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A759" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B759" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F759" s="5">
+        <v>1.0058829704467913</v>
+      </c>
+      <c r="G759" s="5"/>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A760" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B760" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F760" s="5">
+        <v>1.0102664050263517</v>
+      </c>
+      <c r="G760" s="5"/>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A761" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B761" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F761" s="5">
+        <v>1.0318192774524944</v>
+      </c>
+      <c r="G761" s="5"/>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A762" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B762" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F762" s="5">
+        <v>1.0091881482913909</v>
+      </c>
+      <c r="G762" s="5"/>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A763" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B763" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F763" s="5">
+        <v>1.0089341249526491</v>
+      </c>
+      <c r="G763" s="5"/>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A764" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B764" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F764" s="5">
+        <v>1.0157817716477346</v>
+      </c>
+      <c r="G764" s="5"/>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A765" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B765" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F765" s="5">
+        <v>1.007903765988031</v>
+      </c>
+      <c r="G765" s="5"/>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A766" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B766" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F766" s="5">
+        <v>1.0114839611671504</v>
+      </c>
+      <c r="G766" s="5"/>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A767" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B767" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F767" s="5">
+        <v>1.0439932102839258</v>
+      </c>
+      <c r="G767" s="5"/>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A768" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B768" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F768" s="5">
+        <v>1.0539573026231246</v>
+      </c>
+      <c r="G768" s="5"/>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A769" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B769" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F769" s="5">
+        <v>1.0335137230971052</v>
+      </c>
+      <c r="G769" s="5"/>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A770" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B770" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F770" s="5">
+        <v>1.0073230543854415</v>
+      </c>
+      <c r="G770" s="5"/>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A771" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B771" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F771" s="5">
+        <v>1.0109199502092687</v>
+      </c>
+      <c r="G771" s="5"/>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A772" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B772" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F772" s="5">
+        <v>1.0429139451555589</v>
+      </c>
+      <c r="G772" s="5"/>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A773" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B773" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F773" s="5">
+        <v>1.0525231917888074</v>
+      </c>
+      <c r="G773" s="5"/>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A774" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B774" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F774" s="5">
+        <v>1.0330538911598923</v>
+      </c>
+      <c r="G774" s="5"/>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B775" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F775" s="5">
+        <v>1.0079059866817959</v>
+      </c>
+      <c r="G775" s="5"/>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A776" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B776" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F776" s="5">
+        <v>1.0114860625365856</v>
+      </c>
+      <c r="G776" s="5"/>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A777" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B777" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F777" s="5">
+        <v>1.0439979226043763</v>
+      </c>
+      <c r="G777" s="5"/>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A778" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B778" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F778" s="5">
+        <v>1.0539633661297994</v>
+      </c>
+      <c r="G778" s="5"/>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A779" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B779" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F779" s="5">
+        <v>1.0335155081214094</v>
+      </c>
+      <c r="G779" s="5"/>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A780" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B780" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F780" s="5">
+        <v>1.0079098068194479</v>
+      </c>
+      <c r="G780" s="5"/>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A781" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B781" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F781" s="5">
+        <v>1.0114896764440671</v>
+      </c>
+      <c r="G781" s="5"/>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A782" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B782" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F782" s="5">
+        <v>1.0440038184559426</v>
+      </c>
+      <c r="G782" s="5"/>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A783" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B783" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F783" s="5">
+        <v>1.0539714422948396</v>
+      </c>
+      <c r="G783" s="5"/>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A784" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B784" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F784" s="5">
+        <v>1.0352053456525834</v>
+      </c>
+      <c r="G784" s="5"/>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A785" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B785" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F785" s="5">
+        <v>1.0537744433707112</v>
+      </c>
+      <c r="G785" s="5"/>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A786" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B786" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F786" s="5">
+        <v>1.0446814151892905</v>
+      </c>
+      <c r="G786" s="5"/>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A787" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B787" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F787" s="5">
+        <v>1.0514683435102785</v>
+      </c>
+      <c r="G787" s="5"/>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A788" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B788" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F788" s="5">
+        <v>1.0435164725581272</v>
+      </c>
+      <c r="G788" s="5"/>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A789" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B789" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F789" s="5">
+        <v>1.0323682152528169</v>
+      </c>
+      <c r="G789" s="5"/>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A790" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B790" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F790" s="5">
+        <v>1.0507298292781448</v>
+      </c>
+      <c r="G790" s="5"/>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A791" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B791" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F791" s="5">
+        <v>1.0434295434974614</v>
+      </c>
+      <c r="G791" s="5"/>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A792" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B792" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F792" s="5">
+        <v>1.0499987178350598</v>
+      </c>
+      <c r="G792" s="5"/>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A793" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B793" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F793" s="5">
+        <v>1.0426511687919882</v>
+      </c>
+      <c r="G793" s="5"/>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A794" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B794" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F794" s="5">
+        <v>1.0352162793830915</v>
+      </c>
+      <c r="G794" s="5"/>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A795" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B795" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F795" s="5">
+        <v>1.0537858774568993</v>
+      </c>
+      <c r="G795" s="5"/>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A796" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B796" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F796" s="5">
+        <v>1.0446868815084347</v>
+      </c>
+      <c r="G796" s="5"/>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A797" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B797" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F797" s="5">
+        <v>1.0514745585176974</v>
+      </c>
+      <c r="G797" s="5"/>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A798" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B798" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F798" s="5">
+        <v>1.0435198527928728</v>
+      </c>
+      <c r="G798" s="5"/>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A799" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B799" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F799" s="5">
+        <v>1.0352350895941367</v>
+      </c>
+      <c r="G799" s="5"/>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A800" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B800" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F800" s="5">
+        <v>1.0538055432331599</v>
+      </c>
+      <c r="G800" s="5"/>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B801" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F801" s="5">
+        <v>1.044693765748254</v>
+      </c>
+      <c r="G801" s="5"/>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A802" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B802" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F802" s="5">
+        <v>1.0514828638297036</v>
+      </c>
+      <c r="G802" s="5"/>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A803" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B803" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F803" s="5">
+        <v>1.043524961306231</v>
+      </c>
+      <c r="G803" s="5"/>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A804" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B804" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F804" s="5">
+        <v>1.0606805579244005</v>
+      </c>
+      <c r="G804" s="5"/>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A805" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B805" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F805" s="5">
+        <v>1.0974091022051089</v>
+      </c>
+      <c r="G805" s="5"/>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A806" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B806" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F806" s="5">
+        <v>1.0448589580191896</v>
+      </c>
+      <c r="G806" s="5"/>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A807" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B807" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F807" s="5">
+        <v>1.049824967209223</v>
+      </c>
+      <c r="G807" s="5"/>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A808" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B808" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F808" s="5">
+        <v>1.0489694523611228</v>
+      </c>
+      <c r="G808" s="5"/>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A809" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B809" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F809" s="5">
+        <v>1.0554636719122097</v>
+      </c>
+      <c r="G809" s="5"/>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B810" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F810" s="5">
+        <v>1.0912339165171296</v>
+      </c>
+      <c r="G810" s="5"/>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A811" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B811" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F811" s="5">
+        <v>1.0430166398023553</v>
+      </c>
+      <c r="G811" s="5"/>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A812" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B812" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F812" s="5">
+        <v>1.0478107792235023</v>
+      </c>
+      <c r="G812" s="5"/>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A813" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B813" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F813" s="5">
+        <v>1.047436293772313</v>
+      </c>
+      <c r="G813" s="5"/>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A814" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B814" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F814" s="5">
+        <v>1.060700781659313</v>
+      </c>
+      <c r="G814" s="5"/>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A815" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B815" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F815" s="5">
+        <v>1.0974324616075366</v>
+      </c>
+      <c r="G815" s="5"/>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B816" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F816" s="5">
+        <v>1.0448668704369459</v>
+      </c>
+      <c r="G816" s="5"/>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B817" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F817" s="5">
+        <v>1.049833458793004</v>
+      </c>
+      <c r="G817" s="5"/>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B818" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F818" s="5">
+        <v>1.0489755124236584</v>
+      </c>
+      <c r="G818" s="5"/>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B819" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F819" s="5">
+        <v>1.06073557639098</v>
+      </c>
+      <c r="G819" s="5"/>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B820" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F820" s="5">
+        <v>1.0974726410084363</v>
+      </c>
+      <c r="G820" s="5"/>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B821" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F821" s="5">
+        <v>1.0448773993507929</v>
+      </c>
+      <c r="G821" s="5"/>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B822" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F822" s="5">
+        <v>1.0498451251267131</v>
+      </c>
+      <c r="G822" s="5"/>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B823" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F823" s="5">
+        <v>1.0489846719923754</v>
+      </c>
+      <c r="G823" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10540,11 +17506,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDD0515-9D31-4706-B6DB-C3AF7ABB700D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28128A58-E689-4D44-8CED-C1FA1569BE0A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10738,11 +17755,1137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F6E1A-D3EC-47A8-91AD-3E7ADA2F1FE3}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>_xlfn.CONCAT(D2:E2)</f>
+        <v>EE</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1/25</f>
+        <v>0.04</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B25" si="0">_xlfn.CONCAT(D3:E3)</f>
+        <v>EO</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C26" si="1">1/25</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EB</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EP</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EN</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OE</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OO</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OB</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OP</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ON</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BE</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BO</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BB</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BP</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BN</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PE</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PO</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PB</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PP</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PN</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NB</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NP</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" ref="B26" si="2">_xlfn.CONCAT(D26:E26)</f>
+        <v>NN</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4DDF2-30F3-4CCA-8112-0900DFF4C9AB}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>_xlfn.CONCAT(D2:F2)</f>
+        <v>OOO</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B28" si="0">_xlfn.CONCAT(D3:F3)</f>
+        <v>OBO</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OPO</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BOO</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BBO</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BPO</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>POO</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PBO</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PPO</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OOB</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OBB</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OPB</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BOB</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BBB</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BPB</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>POB</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PBB</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PPB</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OOP</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OBP</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OPP</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BOP</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BBP</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BPP</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>POP</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PBP</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PPP</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD6B7D-0015-408E-A9D0-05101ADD8B60}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -10818,7 +18961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365BFB6-903F-41E7-AC5F-D6EA4CC87EB7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -11433,7 +19576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3855497E-5D9C-4120-B481-003A7184F3D7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -11670,7 +19813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -11873,95 +20016,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>